--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6.95278430111717E-10</v>
+        <v>1.131426898102946E-15</v>
       </c>
       <c r="E2">
-        <v>6.95278430111717E-10</v>
+        <v>1.131426898102946E-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.673283641990311E-15</v>
+        <v>2.984313054960899E-12</v>
       </c>
       <c r="E3">
-        <v>3.673283641990311E-15</v>
+        <v>2.984313054960899E-12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999987</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1.332267629550188E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.937206541655488E-05</v>
+        <v>5.605916941340763E-08</v>
       </c>
       <c r="E5">
-        <v>0.9999406279345835</v>
+        <v>0.9999999439408306</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.690075694425042E-17</v>
+        <v>6.998663586082739E-15</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.568198606944174E-15</v>
+        <v>2.497628555398735E-10</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999984</v>
+        <v>0.9999999997502371</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.063320882955102E-11</v>
+        <v>1.307942752328771E-10</v>
       </c>
       <c r="E8">
-        <v>0.9999999999793668</v>
+        <v>0.9999999998692057</v>
       </c>
       <c r="F8">
-        <v>15.146164894104</v>
+        <v>13.45111751556396</v>
       </c>
       <c r="G8">
         <v>0.4285714285714285</v>
